--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-07.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="670">
   <si>
     <t>League</t>
   </si>
@@ -2024,21 +2024,6 @@
   </si>
   <si>
     <t>Boyaca Chico</t>
-  </si>
-  <si>
-    <t>33172359</t>
-  </si>
-  <si>
-    <t>1.227258977</t>
-  </si>
-  <si>
-    <t>1.227259022</t>
-  </si>
-  <si>
-    <t>1.227259061</t>
-  </si>
-  <si>
-    <t>1.227258986</t>
   </si>
 </sst>
 </file>
@@ -49263,8 +49248,8 @@
       <c r="BE238">
         <v>1000</v>
       </c>
-      <c r="BF238" t="s">
-        <v>670</v>
+      <c r="BF238">
+        <v>33172359</v>
       </c>
       <c r="BG238">
         <v>224547</v>
@@ -49275,17 +49260,17 @@
       <c r="BI238">
         <v>58805</v>
       </c>
-      <c r="BJ238" t="s">
-        <v>671</v>
-      </c>
-      <c r="BK238" t="s">
-        <v>672</v>
-      </c>
-      <c r="BL238" t="s">
-        <v>673</v>
-      </c>
-      <c r="BM238" t="s">
-        <v>674</v>
+      <c r="BJ238">
+        <v>1.227258977</v>
+      </c>
+      <c r="BK238">
+        <v>1.227259022</v>
+      </c>
+      <c r="BL238">
+        <v>1.227259061</v>
+      </c>
+      <c r="BM238">
+        <v>1.227258986</v>
       </c>
     </row>
     <row r="239" spans="1:65">
